--- a/Document/TasklistAss1.xlsx
+++ b/Document/TasklistAss1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chuyên Ngành\Chuyên Ngành 8\Project management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chuyên Ngành\Chuyên Ngành 8\Project management\Slide\Ass\SWM_Project\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -218,10 +218,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:BB98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1020,14 +1020,14 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>42779</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>42780</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>7</v>
@@ -1077,14 +1077,14 @@
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>42779</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>42780</v>
       </c>
       <c r="F6" s="7">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>7</v>
@@ -1134,17 +1134,17 @@
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>42781</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>42781</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1191,17 +1191,17 @@
       <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>42781</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>42781</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1248,10 +1248,10 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>42782</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>42782</v>
       </c>
       <c r="F9" s="7">
@@ -1305,10 +1305,10 @@
       <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>42782</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>42782</v>
       </c>
       <c r="F10" s="7">
@@ -1360,8 +1360,8 @@
       <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="7">
         <v>0</v>
       </c>
@@ -1413,8 +1413,8 @@
       <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="7">
         <v>0.2</v>
       </c>
@@ -1466,8 +1466,8 @@
       <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="7">
         <v>0</v>
       </c>
@@ -2100,16 +2100,16 @@
       <c r="BB24" s="1"/>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2156,16 +2156,16 @@
       <c r="BB25" s="1"/>
     </row>
     <row r="26" spans="1:54" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2212,16 +2212,16 @@
       <c r="BB26" s="1"/>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2268,16 +2268,16 @@
       <c r="BB27" s="1"/>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>

--- a/Document/TasklistAss1.xlsx
+++ b/Document/TasklistAss1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Tasks</t>
   </si>
@@ -809,7 +809,7 @@
   <dimension ref="A1:BB98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1027,7 @@
         <v>42780</v>
       </c>
       <c r="F5" s="7">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         <v>42780</v>
       </c>
       <c r="F6" s="7">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>7</v>
@@ -1141,10 +1141,10 @@
         <v>42781</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1198,10 +1198,10 @@
         <v>42781</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1314,7 +1314,9 @@
       <c r="F10" s="7">
         <v>0</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>

--- a/Document/TasklistAss1.xlsx
+++ b/Document/TasklistAss1.xlsx
@@ -809,7 +809,7 @@
   <dimension ref="A1:BB98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
         <v>42781</v>
       </c>
       <c r="F7" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>7</v>
@@ -1198,7 +1198,7 @@
         <v>42781</v>
       </c>
       <c r="F8" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -1255,7 +1255,7 @@
         <v>42782</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>7</v>
@@ -1312,7 +1312,7 @@
         <v>42782</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>7</v>

--- a/Document/TasklistAss1.xlsx
+++ b/Document/TasklistAss1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
   <si>
     <t>Tasks</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Find source code project and customize</t>
   </si>
   <si>
-    <t>Create Slide for Presentation</t>
-  </si>
-  <si>
     <t>Hoàng</t>
   </si>
   <si>
@@ -100,6 +97,21 @@
   </si>
   <si>
     <t>Create Slide for Presentation Phasre 1</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Create Activity and Attributes List</t>
+  </si>
+  <si>
+    <t>Create a Precedence Network Diagram</t>
+  </si>
+  <si>
+    <t>Estimate Resources and Duration for those Task</t>
+  </si>
+  <si>
+    <t>Report the final schedule</t>
   </si>
 </sst>
 </file>
@@ -228,7 +240,106 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -806,23 +917,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB98"/>
+  <dimension ref="A1:BC97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.625" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="40.625" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -864,13 +976,14 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
-    </row>
-    <row r="2" spans="1:54" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="AP1" s="1"/>
+    </row>
+    <row r="2" spans="1:55" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -909,8 +1022,9 @@
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="AP2" s="1"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -952,30 +1066,33 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
-    </row>
-    <row r="4" spans="1:54" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AP3" s="1"/>
+    </row>
+    <row r="4" spans="1:55" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1009,30 +1126,33 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
-    </row>
-    <row r="5" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="AP4" s="1"/>
+    </row>
+    <row r="5" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>42779</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>42780</v>
       </c>
-      <c r="F5" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1066,30 +1186,33 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
-    </row>
-    <row r="6" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="AP5" s="1"/>
+    </row>
+    <row r="6" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>42779</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>42780</v>
       </c>
-      <c r="F6" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1123,30 +1246,33 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
-    </row>
-    <row r="7" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="AP6" s="1"/>
+    </row>
+    <row r="7" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>42781</v>
       </c>
       <c r="E7" s="8">
         <v>42781</v>
       </c>
-      <c r="F7" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
+      <c r="F7" s="8">
+        <v>42781</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1180,30 +1306,33 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
-    </row>
-    <row r="8" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="AP7" s="1"/>
+    </row>
+    <row r="8" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D8" s="8">
-        <v>42781</v>
       </c>
       <c r="E8" s="8">
         <v>42781</v>
       </c>
-      <c r="F8" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
+      <c r="F8" s="8">
+        <v>42781</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1237,30 +1366,33 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
-    </row>
-    <row r="9" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
+      <c r="AP8" s="1"/>
+    </row>
+    <row r="9" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="D9" s="8">
-        <v>42782</v>
       </c>
       <c r="E9" s="8">
         <v>42782</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="F9" s="8">
+        <v>42782</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1294,30 +1426,33 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
-    </row>
-    <row r="10" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
+      <c r="AP9" s="1"/>
+    </row>
+    <row r="10" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="D10" s="8">
-        <v>42782</v>
       </c>
       <c r="E10" s="8">
         <v>42782</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
+      <c r="F10" s="8">
+        <v>42782</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1351,26 +1486,29 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
-    </row>
-    <row r="11" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="AP10" s="1"/>
+    </row>
+    <row r="11" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="7">
+      <c r="F11" s="8"/>
+      <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1404,26 +1542,29 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
-    </row>
-    <row r="12" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="AP11" s="1"/>
+    </row>
+    <row r="12" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="7">
+      <c r="F12" s="8"/>
+      <c r="G12" s="7">
         <v>0.2</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1457,26 +1598,33 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
-    </row>
-    <row r="13" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
+      <c r="AP12" s="1"/>
+    </row>
+    <row r="13" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>42787</v>
+      </c>
+      <c r="F13" s="6">
+        <v>42790</v>
+      </c>
+      <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1510,16 +1658,33 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
-    </row>
-    <row r="14" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="1"/>
+      <c r="AP13" s="1"/>
+    </row>
+    <row r="14" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>42788</v>
+      </c>
+      <c r="F14" s="6">
+        <v>42790</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1553,16 +1718,33 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
-    </row>
-    <row r="15" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="1"/>
+      <c r="AP14" s="1"/>
+    </row>
+    <row r="15" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>42788</v>
+      </c>
+      <c r="F15" s="6">
+        <v>42790</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1596,16 +1778,46 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
-    </row>
-    <row r="16" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+    </row>
+    <row r="16" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>42789</v>
+      </c>
+      <c r="F16" s="6">
+        <v>42790</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1652,16 +1864,17 @@
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
-    </row>
-    <row r="17" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="BC16" s="1"/>
+    </row>
+    <row r="17" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1708,16 +1921,17 @@
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
-    </row>
-    <row r="18" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="BC17" s="1"/>
+    </row>
+    <row r="18" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1764,16 +1978,17 @@
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
-    </row>
-    <row r="19" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC18" s="1"/>
+    </row>
+    <row r="19" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1820,16 +2035,17 @@
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
-    </row>
-    <row r="20" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC19" s="1"/>
+    </row>
+    <row r="20" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1876,16 +2092,17 @@
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
-    </row>
-    <row r="21" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC20" s="1"/>
+    </row>
+    <row r="21" spans="1:55" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1932,15 +2149,16 @@
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
-    </row>
-    <row r="22" spans="1:54" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
+      <c r="BC21" s="1"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1988,8 +2206,9 @@
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC22" s="1"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2044,19 +2263,19 @@
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="BC23" s="1"/>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2100,9 +2319,9 @@
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="BC24" s="1"/>
+    </row>
+    <row r="25" spans="1:55" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2112,7 +2331,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2156,9 +2375,9 @@
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
-    </row>
-    <row r="26" spans="1:54" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="BC25" s="1"/>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2168,7 +2387,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2212,9 +2431,9 @@
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="BC26" s="1"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -2224,7 +2443,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2268,18 +2487,19 @@
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="BC27" s="1"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2324,8 +2544,9 @@
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC28" s="1"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2380,8 +2601,9 @@
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC29" s="1"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2436,8 +2658,9 @@
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC30" s="1"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2492,8 +2715,9 @@
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC31" s="1"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2548,8 +2772,9 @@
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
-    </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC32" s="1"/>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2604,8 +2829,9 @@
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
-    </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC33" s="1"/>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2660,8 +2886,9 @@
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
-    </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC34" s="1"/>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2716,8 +2943,9 @@
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
-    </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC35" s="1"/>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2772,8 +3000,9 @@
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
-    </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC36" s="1"/>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2828,8 +3057,9 @@
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
-    </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC37" s="1"/>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2884,8 +3114,9 @@
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
-    </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC38" s="1"/>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2940,8 +3171,9 @@
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
-    </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC39" s="1"/>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2996,8 +3228,9 @@
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
-    </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC40" s="1"/>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3052,8 +3285,9 @@
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
-    </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC41" s="1"/>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3108,8 +3342,9 @@
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
-    </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC42" s="1"/>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3164,8 +3399,9 @@
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
-    </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC43" s="1"/>
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3220,8 +3456,9 @@
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
-    </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC44" s="1"/>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3276,8 +3513,9 @@
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
-    </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC45" s="1"/>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3332,8 +3570,9 @@
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
-    </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC46" s="1"/>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3388,8 +3627,9 @@
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
-    </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC47" s="1"/>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3444,8 +3684,9 @@
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
-    </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC48" s="1"/>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3500,8 +3741,9 @@
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
-    </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC49" s="1"/>
+    </row>
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3556,8 +3798,9 @@
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
-    </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC50" s="1"/>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3612,8 +3855,9 @@
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
-    </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC51" s="1"/>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3668,8 +3912,9 @@
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
-    </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC52" s="1"/>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3724,8 +3969,9 @@
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
-    </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC53" s="1"/>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3780,8 +4026,9 @@
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
-    </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC54" s="1"/>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3836,8 +4083,9 @@
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
-    </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC55" s="1"/>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3892,8 +4140,9 @@
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
-    </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC56" s="1"/>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3948,8 +4197,9 @@
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
-    </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC57" s="1"/>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4004,8 +4254,9 @@
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
-    </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC58" s="1"/>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4060,8 +4311,9 @@
       <c r="AZ59" s="1"/>
       <c r="BA59" s="1"/>
       <c r="BB59" s="1"/>
-    </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC59" s="1"/>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4116,8 +4368,9 @@
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
-    </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC60" s="1"/>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4172,8 +4425,9 @@
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
-    </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC61" s="1"/>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4228,8 +4482,9 @@
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
-    </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC62" s="1"/>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4284,8 +4539,9 @@
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
-    </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC63" s="1"/>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4340,8 +4596,9 @@
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
-    </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC64" s="1"/>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4396,8 +4653,9 @@
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
-    </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC65" s="1"/>
+    </row>
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4452,8 +4710,9 @@
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
-    </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC66" s="1"/>
+    </row>
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4508,8 +4767,9 @@
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
       <c r="BB67" s="1"/>
-    </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC67" s="1"/>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4564,8 +4824,9 @@
       <c r="AZ68" s="1"/>
       <c r="BA68" s="1"/>
       <c r="BB68" s="1"/>
-    </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC68" s="1"/>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4620,8 +4881,9 @@
       <c r="AZ69" s="1"/>
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
-    </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC69" s="1"/>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4676,8 +4938,9 @@
       <c r="AZ70" s="1"/>
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
-    </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC70" s="1"/>
+    </row>
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4732,8 +4995,9 @@
       <c r="AZ71" s="1"/>
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
-    </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC71" s="1"/>
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4788,8 +5052,9 @@
       <c r="AZ72" s="1"/>
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
-    </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC72" s="1"/>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4844,8 +5109,9 @@
       <c r="AZ73" s="1"/>
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
-    </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC73" s="1"/>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4900,8 +5166,9 @@
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
-    </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC74" s="1"/>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4956,8 +5223,9 @@
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
-    </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC75" s="1"/>
+    </row>
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5012,8 +5280,9 @@
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
-    </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC76" s="1"/>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5068,8 +5337,9 @@
       <c r="AZ77" s="1"/>
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
-    </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC77" s="1"/>
+    </row>
+    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5124,8 +5394,9 @@
       <c r="AZ78" s="1"/>
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
-    </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC78" s="1"/>
+    </row>
+    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5180,8 +5451,9 @@
       <c r="AZ79" s="1"/>
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
-    </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC79" s="1"/>
+    </row>
+    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5236,8 +5508,9 @@
       <c r="AZ80" s="1"/>
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
-    </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC80" s="1"/>
+    </row>
+    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5292,8 +5565,9 @@
       <c r="AZ81" s="1"/>
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
-    </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC81" s="1"/>
+    </row>
+    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5348,8 +5622,9 @@
       <c r="AZ82" s="1"/>
       <c r="BA82" s="1"/>
       <c r="BB82" s="1"/>
-    </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC82" s="1"/>
+    </row>
+    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5404,8 +5679,9 @@
       <c r="AZ83" s="1"/>
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
-    </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC83" s="1"/>
+    </row>
+    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5460,8 +5736,9 @@
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1"/>
       <c r="BB84" s="1"/>
-    </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC84" s="1"/>
+    </row>
+    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5516,8 +5793,9 @@
       <c r="AZ85" s="1"/>
       <c r="BA85" s="1"/>
       <c r="BB85" s="1"/>
-    </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC85" s="1"/>
+    </row>
+    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5572,8 +5850,9 @@
       <c r="AZ86" s="1"/>
       <c r="BA86" s="1"/>
       <c r="BB86" s="1"/>
-    </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC86" s="1"/>
+    </row>
+    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5628,8 +5907,9 @@
       <c r="AZ87" s="1"/>
       <c r="BA87" s="1"/>
       <c r="BB87" s="1"/>
-    </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC87" s="1"/>
+    </row>
+    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5684,8 +5964,9 @@
       <c r="AZ88" s="1"/>
       <c r="BA88" s="1"/>
       <c r="BB88" s="1"/>
-    </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC88" s="1"/>
+    </row>
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5740,8 +6021,9 @@
       <c r="AZ89" s="1"/>
       <c r="BA89" s="1"/>
       <c r="BB89" s="1"/>
-    </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC89" s="1"/>
+    </row>
+    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5796,8 +6078,9 @@
       <c r="AZ90" s="1"/>
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
-    </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC90" s="1"/>
+    </row>
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5852,8 +6135,9 @@
       <c r="AZ91" s="1"/>
       <c r="BA91" s="1"/>
       <c r="BB91" s="1"/>
-    </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC91" s="1"/>
+    </row>
+    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5908,8 +6192,9 @@
       <c r="AZ92" s="1"/>
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
-    </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC92" s="1"/>
+    </row>
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5964,8 +6249,9 @@
       <c r="AZ93" s="1"/>
       <c r="BA93" s="1"/>
       <c r="BB93" s="1"/>
-    </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC93" s="1"/>
+    </row>
+    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6020,8 +6306,9 @@
       <c r="AZ94" s="1"/>
       <c r="BA94" s="1"/>
       <c r="BB94" s="1"/>
-    </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC94" s="1"/>
+    </row>
+    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6076,8 +6363,9 @@
       <c r="AZ95" s="1"/>
       <c r="BA95" s="1"/>
       <c r="BB95" s="1"/>
-    </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC95" s="1"/>
+    </row>
+    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6132,8 +6420,9 @@
       <c r="AZ96" s="1"/>
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
-    </row>
-    <row r="97" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC96" s="1"/>
+    </row>
+    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6188,175 +6477,155 @@
       <c r="AZ97" s="1"/>
       <c r="BA97" s="1"/>
       <c r="BB97" s="1"/>
-    </row>
-    <row r="98" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
-      <c r="Y98" s="1"/>
-      <c r="Z98" s="1"/>
-      <c r="AA98" s="1"/>
-      <c r="AB98" s="1"/>
-      <c r="AC98" s="1"/>
-      <c r="AD98" s="1"/>
-      <c r="AE98" s="1"/>
-      <c r="AF98" s="1"/>
-      <c r="AG98" s="1"/>
-      <c r="AH98" s="1"/>
-      <c r="AI98" s="1"/>
-      <c r="AJ98" s="1"/>
-      <c r="AK98" s="1"/>
-      <c r="AL98" s="1"/>
-      <c r="AM98" s="1"/>
-      <c r="AN98" s="1"/>
-      <c r="AO98" s="1"/>
-      <c r="AP98" s="1"/>
-      <c r="AQ98" s="1"/>
-      <c r="AR98" s="1"/>
-      <c r="AS98" s="1"/>
-      <c r="AT98" s="1"/>
-      <c r="AU98" s="1"/>
-      <c r="AV98" s="1"/>
-      <c r="AW98" s="1"/>
-      <c r="AX98" s="1"/>
-      <c r="AY98" s="1"/>
-      <c r="AZ98" s="1"/>
-      <c r="BA98" s="1"/>
-      <c r="BB98" s="1"/>
+      <c r="BC97" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A25:J28"/>
+    <mergeCell ref="B24:K27"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:C5 G5:G14 C6:C14">
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$G$5="Complete"</formula>
+  <conditionalFormatting sqref="B5:D5 H5:H13 D6:D13">
+    <cfRule type="expression" dxfId="30" priority="39">
+      <formula>$H$5="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:B6">
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$G$6="Complete"</formula>
+  <conditionalFormatting sqref="B6:C6 E9 G8:G10 E11:G21">
+    <cfRule type="expression" dxfId="29" priority="38">
+      <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:B10">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$G$7="Complete"</formula>
+  <conditionalFormatting sqref="B7:C10">
+    <cfRule type="expression" dxfId="28" priority="37">
+      <formula>$H$7="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$G$11="Complete"</formula>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="expression" dxfId="27" priority="36">
+      <formula>$H$11="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$G$12="Complete"</formula>
+  <conditionalFormatting sqref="B12:C12">
+    <cfRule type="expression" dxfId="26" priority="35">
+      <formula>$H$12="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$G$13="Complete"</formula>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="24" priority="33">
+      <formula>$H$13="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:B14">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>$G$14="Complete"</formula>
+  <conditionalFormatting sqref="B14:D14 H14">
+    <cfRule type="expression" dxfId="23" priority="32">
+      <formula>$H$14="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:C15 G15">
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$G$15="Complete"</formula>
+  <conditionalFormatting sqref="C15:D15 H15">
+    <cfRule type="expression" dxfId="22" priority="30">
+      <formula>$H$15="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16 G16">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$G$16="Complete"</formula>
+  <conditionalFormatting sqref="C16:D16 H16">
+    <cfRule type="expression" dxfId="21" priority="29">
+      <formula>$H$16="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 G17">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$G$17="Complete"</formula>
+  <conditionalFormatting sqref="B17:D17 H17">
+    <cfRule type="expression" dxfId="20" priority="28">
+      <formula>$H$17="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:C18 G18">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$G$18="Complete"</formula>
+  <conditionalFormatting sqref="B18:D18 H18">
+    <cfRule type="expression" dxfId="19" priority="27">
+      <formula>$H$18="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:C19 G19">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$G$19="Complete"</formula>
+  <conditionalFormatting sqref="B19:D19 H19">
+    <cfRule type="expression" dxfId="18" priority="26">
+      <formula>$H$19="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:C20 G20">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$G$20="Complete"</formula>
+  <conditionalFormatting sqref="B20:D20 H20">
+    <cfRule type="expression" dxfId="17" priority="25">
+      <formula>$H$20="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21 G21">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$G$21="Complete"</formula>
+  <conditionalFormatting sqref="B21:D21 H21">
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>$H$21="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22 G22">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$G$22="Complete"</formula>
+  <conditionalFormatting sqref="E5:E7">
+    <cfRule type="expression" dxfId="15" priority="23">
+      <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D7 D9 D11:D22">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$G$6="Complete"</formula>
+  <conditionalFormatting sqref="F5:G7">
+    <cfRule type="expression" dxfId="14" priority="22">
+      <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:F7 E11:F22 F8:F10">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$G$6="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$G$6="Complete"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$G$6="Complete"</formula>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="13" priority="21">
+      <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$G$6="Complete"</formula>
+    <cfRule type="expression" dxfId="12" priority="20">
+      <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$G$6="Complete"</formula>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="11" priority="19">
+      <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="10" priority="18">
+      <formula>$H$6="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="9" priority="17">
+      <formula>$H$6="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5 A7:A8 A10:A11 A13:A14 A16">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>$H$5="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6 A9 A12 A15">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>$H$6="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$H$17="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$H$18="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$H$19="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$H$20="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H$21="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G$6="Complete"</formula>
+      <formula>$H$11="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6368,13 +6637,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D23:F24 C5:C24</xm:sqref>
+          <xm:sqref>E22:G23 D5:D23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G24</xm:sqref>
+          <xm:sqref>H5:H23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Document/TasklistAss1.xlsx
+++ b/Document/TasklistAss1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chuyên Ngành\Chuyên Ngành 8\Project management\Slide\Ass\SWM_Project\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tran Hoang Vu\Documents\GitHub\SWM_Project\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
@@ -240,29 +240,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <color auto="1"/>
@@ -920,7 +898,7 @@
   <dimension ref="A1:BC97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1724,7 +1702,7 @@
       <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1740,10 +1718,10 @@
         <v>42790</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -6484,117 +6462,117 @@
     <mergeCell ref="B24:K27"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:D5 H5:H13 D6:D13">
-    <cfRule type="expression" dxfId="30" priority="39">
+    <cfRule type="expression" dxfId="28" priority="39">
       <formula>$H$5="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 E9 G8:G10 E11:G21">
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="27" priority="38">
       <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C10">
-    <cfRule type="expression" dxfId="28" priority="37">
+    <cfRule type="expression" dxfId="26" priority="37">
       <formula>$H$7="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="expression" dxfId="27" priority="36">
+    <cfRule type="expression" dxfId="25" priority="36">
       <formula>$H$11="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="expression" dxfId="26" priority="35">
+    <cfRule type="expression" dxfId="24" priority="35">
       <formula>$H$12="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>$H$13="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:D14 H14">
-    <cfRule type="expression" dxfId="23" priority="32">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>$H$14="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15 H15">
-    <cfRule type="expression" dxfId="22" priority="30">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>$H$15="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D16 H16">
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="20" priority="29">
       <formula>$H$16="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:D17 H17">
-    <cfRule type="expression" dxfId="20" priority="28">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>$H$17="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:D18 H18">
-    <cfRule type="expression" dxfId="19" priority="27">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>$H$18="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:D19 H19">
-    <cfRule type="expression" dxfId="18" priority="26">
+    <cfRule type="expression" dxfId="17" priority="26">
       <formula>$H$19="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:D20 H20">
-    <cfRule type="expression" dxfId="17" priority="25">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>$H$20="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21 H21">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="15" priority="24">
       <formula>$H$21="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E7">
-    <cfRule type="expression" dxfId="15" priority="23">
+    <cfRule type="expression" dxfId="14" priority="23">
       <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:G7">
-    <cfRule type="expression" dxfId="14" priority="22">
+    <cfRule type="expression" dxfId="13" priority="22">
       <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="13" priority="21">
+    <cfRule type="expression" dxfId="12" priority="21">
       <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="11" priority="20">
       <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="9" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 A7:A8 A10:A11 A13:A14 A16">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>$H$5="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6 A9 A12 A15">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>$H$6="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
